--- a/src/templates/Abaca_Disease_Management_Template.xlsx
+++ b/src/templates/Abaca_Disease_Management_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A24C91E-6FE7-407E-937A-BA4F3E0AD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA69373-8E88-4F8E-95B1-6549C5BC5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -117,13 +117,22 @@
     <t>Kutay</t>
   </si>
   <si>
-    <t>Region 3</t>
-  </si>
-  <si>
     <t>Mark Joseph Salem</t>
   </si>
   <si>
     <t>Disease Percentage During Eradication (percentage)</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Date Monitored</t>
+  </si>
+  <si>
+    <t>Regional Office 3</t>
   </si>
 </sst>
 </file>
@@ -304,10 +313,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -331,72 +336,16 @@
     <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4AD83AF9-533F-4CCA-A2D8-C29117E50E8F}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
@@ -632,10 +581,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,97 +593,109 @@
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="2"/>
+    <col min="8" max="10" width="37.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="14" width="20" style="2" customWidth="1"/>
+    <col min="15" max="16" width="46.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="30" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -760,31 +721,40 @@
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -799,60 +769,72 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>44553</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9">
+        <v>44553</v>
+      </c>
+      <c r="J7" s="11">
         <v>29</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="14">
+      <c r="M7" s="13">
         <v>3000</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="14">
+      <c r="O7" s="13">
         <v>40</v>
       </c>
-      <c r="N7" s="14">
+      <c r="P7" s="9">
+        <v>44553</v>
+      </c>
+      <c r="Q7" s="13">
         <v>1000</v>
       </c>
-      <c r="O7" s="15">
+      <c r="R7" s="14">
         <v>44582</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -867,10 +849,13 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -885,10 +870,13 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -898,15 +886,18 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -916,15 +907,18 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -934,15 +928,18 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -952,15 +949,18 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -970,15 +970,18 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -988,15 +991,18 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1006,15 +1012,18 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1024,15 +1033,18 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1042,15 +1054,18 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1060,15 +1075,18 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1085,8 +1103,11 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1103,8 +1124,11 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1121,8 +1145,11 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1139,8 +1166,11 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1157,8 +1187,11 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1175,8 +1208,11 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1193,8 +1229,11 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1211,8 +1250,11 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1229,8 +1271,11 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1247,8 +1292,11 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1265,8 +1313,11 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1283,8 +1334,11 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1301,8 +1355,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1319,8 +1376,11 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1337,8 +1397,11 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1355,8 +1418,11 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1373,8 +1439,11 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1391,8 +1460,11 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1409,8 +1481,11 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1427,8 +1502,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1445,8 +1523,11 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1463,8 +1544,11 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1481,8 +1565,11 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1499,16 +1586,19 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1Tera5l7zQWmlTR2g40eKQ8+GsKAPIOHsExSNl6r7x60FbFb1TrDC1jzOry2Z1MfLpVQEmXWJ4O7OXk8Trtlow==" saltValue="vRZrrowDE69hzz6aKzYbTQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fu2Pdnclpc8AhvePUuPd4uS1i+9qBZm24nQDSHlHH/Z1vz5bbQHy2wFZkyezKd/4rLjf5WkS4bPcaXOvmu2xmw==" saltValue="KJRE1w5OAXlQLQ7edoP+BA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="D3:R3"/>
   </mergeCells>
-  <conditionalFormatting sqref="O7">
+  <conditionalFormatting sqref="R7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$2=ROW()</formula>
     </cfRule>

--- a/src/templates/Abaca_Disease_Management_Template.xlsx
+++ b/src/templates/Abaca_Disease_Management_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA69373-8E88-4F8E-95B1-6549C5BC5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3676C7-CE2D-4E5C-A61C-513A0BDB2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/templates/Abaca_Disease_Management_Template.xlsx
+++ b/src/templates/Abaca_Disease_Management_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3676C7-CE2D-4E5C-A61C-513A0BDB2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2CDC9-FC48-40D6-84D9-8D8A40FA5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,18 +317,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="12" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="12" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="12" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -337,6 +325,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -607,69 +607,69 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -678,21 +678,21 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,58 +779,58 @@
       <c r="A7" s="9">
         <v>44553</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="9">
         <v>44553</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="13">
         <v>29</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="15">
         <v>3000</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="15">
         <v>40</v>
       </c>
       <c r="P7" s="9">
         <v>44553</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <v>1000</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="11">
         <v>44582</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
